--- a/IRCS3_local/IRCS4_build/RAFM MANUAL/RAFM Manual trad con.xlsx
+++ b/IRCS3_local/IRCS4_build/RAFM MANUAL/RAFM Manual trad con.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IRCS\Control 4\Input\RAFM MANUAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test Run Python\IRCS4_build\RAFM MANUAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82ED17CF-AD46-4F1C-AC35-6596A91A1317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4ED6E06-9835-42EF-B41B-155267D4EBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1C09250C-B028-46B9-BC58-AA0FD444A17C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -192,7 +192,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,15 +213,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,18 +224,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBDD7EE"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9E1F2"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB4C6E7"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -274,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -283,9 +264,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,10 +602,10 @@
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U10" sqref="U10"/>
+      <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -746,12 +724,12 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="8"/>
+      <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="9"/>
+      <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
@@ -786,12 +764,12 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="8"/>
+      <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
-      <c r="R3" s="9"/>
+      <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -826,12 +804,12 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="8"/>
+      <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
-      <c r="R4" s="9"/>
+      <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
@@ -866,12 +844,12 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="8"/>
+      <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="9"/>
+      <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
@@ -906,12 +884,12 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="8"/>
+      <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="9"/>
+      <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
@@ -1034,15 +1012,21 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="K9" s="6">
+        <v>447498179</v>
+      </c>
       <c r="L9" s="3"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="N9" s="7">
+        <v>-447498179</v>
+      </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
+      <c r="S9" s="6">
+        <v>53539670662386</v>
+      </c>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
@@ -1111,19 +1095,19 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="6">
-        <v>6119938848</v>
+        <v>6567437027</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="5"/>
       <c r="N11" s="7">
-        <v>-6119938848</v>
+        <v>-6567437027</v>
       </c>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="6">
-        <v>20662469927265</v>
+        <v>74202140589650</v>
       </c>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -1246,15 +1230,21 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="K14" s="6">
+        <v>6567437027</v>
+      </c>
       <c r="L14" s="3"/>
       <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
+      <c r="N14" s="7">
+        <v>-6567437027</v>
+      </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
+      <c r="S14" s="6">
+        <v>18682051275081</v>
+      </c>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
@@ -1726,7 +1716,7 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="10"/>
+      <c r="S26" s="4"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
